--- a/Atlas/ABA_CCF.xlsx
+++ b/Atlas/ABA_CCF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pasha\Documents\cfos_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c26aeee6f08e21e/KwanLab/Lightsheet_cFos_Pipeline/Atlas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B45709D4-7ABD-4CD1-A044-A068C8A58D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B45709D4-7ABD-4CD1-A044-A068C8A58D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92749773-A182-49DB-B65E-73F1BF1C3F62}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCFv3 ontology" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CCFv3 ontology'!$A$1:$K$840</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -8015,24 +8020,24 @@
   <dimension ref="A1:K840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" customWidth="1"/>
-    <col min="9" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="11" width="15.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2517</v>
       </c>
@@ -8067,7 +8072,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8094,7 +8099,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8120,7 +8125,7 @@
         <v>449594328</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8146,7 +8151,7 @@
         <v>275860156</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8172,7 +8177,7 @@
         <v>221533548</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8198,7 +8203,7 @@
         <v>212625646</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8227,7 +8232,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8256,7 +8261,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8285,7 +8290,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8343,7 +8348,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8372,7 +8377,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8401,7 +8406,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8427,7 +8432,7 @@
         <v>24450362</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -8456,7 +8461,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>19</v>
       </c>
@@ -8485,7 +8490,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -8514,7 +8519,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -8543,7 +8548,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -8572,7 +8577,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -8601,7 +8606,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>24</v>
       </c>
@@ -8630,7 +8635,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -8659,7 +8664,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>26</v>
       </c>
@@ -8688,7 +8693,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>27</v>
       </c>
@@ -8717,7 +8722,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -8746,7 +8751,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>29</v>
       </c>
@@ -8775,7 +8780,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>30</v>
       </c>
@@ -8801,7 +8806,7 @@
         <v>33320260</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>37</v>
       </c>
@@ -8827,7 +8832,7 @@
         <v>24302098</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44</v>
       </c>
@@ -8856,7 +8861,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45</v>
       </c>
@@ -8885,7 +8890,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>46</v>
       </c>
@@ -8914,7 +8919,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>47</v>
       </c>
@@ -8943,7 +8948,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>48</v>
       </c>
@@ -8972,7 +8977,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>49</v>
       </c>
@@ -9001,7 +9006,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>50</v>
       </c>
@@ -9030,7 +9035,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>51</v>
       </c>
@@ -9059,7 +9064,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>52</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>53</v>
       </c>
@@ -9117,7 +9122,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>54</v>
       </c>
@@ -9146,7 +9151,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>55</v>
       </c>
@@ -9175,7 +9180,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>56</v>
       </c>
@@ -9204,7 +9209,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>57</v>
       </c>
@@ -9233,7 +9238,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>65</v>
       </c>
@@ -9262,7 +9267,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>66</v>
       </c>
@@ -9291,7 +9296,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>67</v>
       </c>
@@ -9320,7 +9325,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>68</v>
       </c>
@@ -9349,7 +9354,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>69</v>
       </c>
@@ -9378,7 +9383,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>70</v>
       </c>
@@ -9407,7 +9412,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>71</v>
       </c>
@@ -9436,7 +9441,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>72</v>
       </c>
@@ -9465,7 +9470,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>73</v>
       </c>
@@ -9494,7 +9499,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>74</v>
       </c>
@@ -9523,7 +9528,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>75</v>
       </c>
@@ -9552,7 +9557,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>76</v>
       </c>
@@ -9581,7 +9586,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>77</v>
       </c>
@@ -9610,7 +9615,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>78</v>
       </c>
@@ -9639,7 +9644,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>79</v>
       </c>
@@ -9668,7 +9673,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>80</v>
       </c>
@@ -9697,7 +9702,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>81</v>
       </c>
@@ -9726,7 +9731,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>82</v>
       </c>
@@ -9755,7 +9760,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>83</v>
       </c>
@@ -9784,7 +9789,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>84</v>
       </c>
@@ -9813,7 +9818,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>85</v>
       </c>
@@ -9842,7 +9847,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>86</v>
       </c>
@@ -9871,7 +9876,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>87</v>
       </c>
@@ -9900,7 +9905,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>88</v>
       </c>
@@ -9929,7 +9934,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>89</v>
       </c>
@@ -9958,7 +9963,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>90</v>
       </c>
@@ -9987,7 +9992,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>91</v>
       </c>
@@ -10016,7 +10021,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>92</v>
       </c>
@@ -10045,7 +10050,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>93</v>
       </c>
@@ -10074,7 +10079,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>94</v>
       </c>
@@ -10103,7 +10108,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>95</v>
       </c>
@@ -10132,7 +10137,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>96</v>
       </c>
@@ -10161,7 +10166,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>97</v>
       </c>
@@ -10190,7 +10195,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>98</v>
       </c>
@@ -10219,7 +10224,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>99</v>
       </c>
@@ -10248,7 +10253,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>100</v>
       </c>
@@ -10277,7 +10282,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>101</v>
       </c>
@@ -10306,7 +10311,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>102</v>
       </c>
@@ -10335,7 +10340,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>103</v>
       </c>
@@ -10364,7 +10369,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>104</v>
       </c>
@@ -10393,7 +10398,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>105</v>
       </c>
@@ -10422,7 +10427,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>106</v>
       </c>
@@ -10451,7 +10456,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>107</v>
       </c>
@@ -10480,7 +10485,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>108</v>
       </c>
@@ -10509,7 +10514,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>109</v>
       </c>
@@ -10538,7 +10543,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>110</v>
       </c>
@@ -10567,7 +10572,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>111</v>
       </c>
@@ -10596,7 +10601,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>112</v>
       </c>
@@ -10625,7 +10630,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>113</v>
       </c>
@@ -10654,7 +10659,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>114</v>
       </c>
@@ -10683,7 +10688,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>115</v>
       </c>
@@ -10712,7 +10717,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>116</v>
       </c>
@@ -10741,7 +10746,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>117</v>
       </c>
@@ -10770,7 +10775,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>118</v>
       </c>
@@ -10799,7 +10804,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>119</v>
       </c>
@@ -10828,7 +10833,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>120</v>
       </c>
@@ -10857,7 +10862,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>121</v>
       </c>
@@ -10883,7 +10888,7 @@
         <v>5794248</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>122</v>
       </c>
@@ -10912,7 +10917,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>123</v>
       </c>
@@ -10941,7 +10946,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>124</v>
       </c>
@@ -10970,7 +10975,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>125</v>
       </c>
@@ -10999,7 +11004,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>126</v>
       </c>
@@ -11028,7 +11033,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>127</v>
       </c>
@@ -11057,7 +11062,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>128</v>
       </c>
@@ -11086,7 +11091,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>136</v>
       </c>
@@ -11115,7 +11120,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>137</v>
       </c>
@@ -11144,7 +11149,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>138</v>
       </c>
@@ -11173,7 +11178,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>139</v>
       </c>
@@ -11202,7 +11207,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>140</v>
       </c>
@@ -11231,7 +11236,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>141</v>
       </c>
@@ -11260,7 +11265,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>142</v>
       </c>
@@ -11289,7 +11294,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>143</v>
       </c>
@@ -11318,7 +11323,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>144</v>
       </c>
@@ -11347,7 +11352,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>145</v>
       </c>
@@ -11376,7 +11381,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>146</v>
       </c>
@@ -11405,7 +11410,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>147</v>
       </c>
@@ -11434,7 +11439,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>148</v>
       </c>
@@ -11463,7 +11468,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>149</v>
       </c>
@@ -11492,7 +11497,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>150</v>
       </c>
@@ -11521,7 +11526,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>151</v>
       </c>
@@ -11550,7 +11555,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>152</v>
       </c>
@@ -11579,7 +11584,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>153</v>
       </c>
@@ -11608,7 +11613,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>154</v>
       </c>
@@ -11637,7 +11642,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>155</v>
       </c>
@@ -11666,7 +11671,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>156</v>
       </c>
@@ -11695,7 +11700,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>157</v>
       </c>
@@ -11721,7 +11726,7 @@
         <v>13468260</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>164</v>
       </c>
@@ -11750,7 +11755,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>165</v>
       </c>
@@ -11779,7 +11784,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>166</v>
       </c>
@@ -11808,7 +11813,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>167</v>
       </c>
@@ -11837,7 +11842,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>168</v>
       </c>
@@ -11866,7 +11871,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>169</v>
       </c>
@@ -11895,7 +11900,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>170</v>
       </c>
@@ -11924,7 +11929,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>171</v>
       </c>
@@ -11953,7 +11958,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>172</v>
       </c>
@@ -11982,7 +11987,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>173</v>
       </c>
@@ -12011,7 +12016,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>174</v>
       </c>
@@ -12040,7 +12045,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>175</v>
       </c>
@@ -12069,7 +12074,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>176</v>
       </c>
@@ -12098,7 +12103,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>177</v>
       </c>
@@ -12127,7 +12132,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>178</v>
       </c>
@@ -12156,7 +12161,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>179</v>
       </c>
@@ -12185,7 +12190,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>180</v>
       </c>
@@ -12214,7 +12219,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>181</v>
       </c>
@@ -12243,7 +12248,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>182</v>
       </c>
@@ -12272,7 +12277,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>183</v>
       </c>
@@ -12301,7 +12306,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>184</v>
       </c>
@@ -12330,7 +12335,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>185</v>
       </c>
@@ -12359,7 +12364,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>186</v>
       </c>
@@ -12388,7 +12393,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>187</v>
       </c>
@@ -12417,7 +12422,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>188</v>
       </c>
@@ -12446,7 +12451,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>189</v>
       </c>
@@ -12475,7 +12480,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>190</v>
       </c>
@@ -12504,7 +12509,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>191</v>
       </c>
@@ -12533,7 +12538,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>192</v>
       </c>
@@ -12562,7 +12567,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>193</v>
       </c>
@@ -12591,7 +12596,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>194</v>
       </c>
@@ -12620,7 +12625,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>195</v>
       </c>
@@ -12649,7 +12654,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>196</v>
       </c>
@@ -12678,7 +12683,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>197</v>
       </c>
@@ -12707,7 +12712,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>198</v>
       </c>
@@ -12736,7 +12741,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>199</v>
       </c>
@@ -12765,7 +12770,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>200</v>
       </c>
@@ -12794,7 +12799,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>201</v>
       </c>
@@ -12823,7 +12828,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>202</v>
       </c>
@@ -12852,7 +12857,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>203</v>
       </c>
@@ -12881,7 +12886,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>204</v>
       </c>
@@ -12910,7 +12915,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>205</v>
       </c>
@@ -12939,7 +12944,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>206</v>
       </c>
@@ -12968,7 +12973,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>207</v>
       </c>
@@ -12997,7 +13002,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>208</v>
       </c>
@@ -13026,7 +13031,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>209</v>
       </c>
@@ -13055,7 +13060,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>210</v>
       </c>
@@ -13084,7 +13089,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>211</v>
       </c>
@@ -13113,7 +13118,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>212</v>
       </c>
@@ -13142,7 +13147,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>213</v>
       </c>
@@ -13171,7 +13176,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>214</v>
       </c>
@@ -13200,7 +13205,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>215</v>
       </c>
@@ -13229,7 +13234,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>216</v>
       </c>
@@ -13258,7 +13263,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>217</v>
       </c>
@@ -13287,7 +13292,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>218</v>
       </c>
@@ -13316,7 +13321,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>219</v>
       </c>
@@ -13345,7 +13350,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>220</v>
       </c>
@@ -13371,7 +13376,7 @@
         <v>5539862</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>226</v>
       </c>
@@ -13400,7 +13405,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>227</v>
       </c>
@@ -13429,7 +13434,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>228</v>
       </c>
@@ -13458,7 +13463,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>229</v>
       </c>
@@ -13487,7 +13492,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>230</v>
       </c>
@@ -13516,7 +13521,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>231</v>
       </c>
@@ -13545,7 +13550,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>232</v>
       </c>
@@ -13574,7 +13579,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>233</v>
       </c>
@@ -13603,7 +13608,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>234</v>
       </c>
@@ -13632,7 +13637,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>235</v>
       </c>
@@ -13661,7 +13666,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>236</v>
       </c>
@@ -13690,7 +13695,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>237</v>
       </c>
@@ -13719,7 +13724,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>238</v>
       </c>
@@ -13748,7 +13753,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>239</v>
       </c>
@@ -13777,7 +13782,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>241</v>
       </c>
@@ -13806,7 +13811,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>242</v>
       </c>
@@ -13835,7 +13840,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>243</v>
       </c>
@@ -13864,7 +13869,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>244</v>
       </c>
@@ -13893,7 +13898,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>245</v>
       </c>
@@ -13922,7 +13927,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>246</v>
       </c>
@@ -13951,7 +13956,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>248</v>
       </c>
@@ -13980,7 +13985,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>249</v>
       </c>
@@ -14009,7 +14014,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>250</v>
       </c>
@@ -14038,7 +14043,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>251</v>
       </c>
@@ -14067,7 +14072,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>252</v>
       </c>
@@ -14093,7 +14098,7 @@
         <v>5904280</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>258</v>
       </c>
@@ -14122,7 +14127,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>259</v>
       </c>
@@ -14151,7 +14156,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>260</v>
       </c>
@@ -14180,7 +14185,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>261</v>
       </c>
@@ -14209,7 +14214,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>262</v>
       </c>
@@ -14238,7 +14243,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>263</v>
       </c>
@@ -14267,7 +14272,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>264</v>
       </c>
@@ -14296,7 +14301,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>265</v>
       </c>
@@ -14325,7 +14330,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>267</v>
       </c>
@@ -14354,7 +14359,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>268</v>
       </c>
@@ -14383,7 +14388,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>269</v>
       </c>
@@ -14412,7 +14417,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>270</v>
       </c>
@@ -14441,7 +14446,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>272</v>
       </c>
@@ -14470,7 +14475,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>273</v>
       </c>
@@ -14499,7 +14504,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>274</v>
       </c>
@@ -14528,7 +14533,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>275</v>
       </c>
@@ -14557,7 +14562,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>276</v>
       </c>
@@ -14586,7 +14591,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>277</v>
       </c>
@@ -14615,7 +14620,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>278</v>
       </c>
@@ -14641,7 +14646,7 @@
         <v>7894106</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>279</v>
       </c>
@@ -14670,7 +14675,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>280</v>
       </c>
@@ -14699,7 +14704,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>281</v>
       </c>
@@ -14728,7 +14733,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>282</v>
       </c>
@@ -14757,7 +14762,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>283</v>
       </c>
@@ -14786,7 +14791,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>284</v>
       </c>
@@ -14815,7 +14820,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>285</v>
       </c>
@@ -14844,7 +14849,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>286</v>
       </c>
@@ -14873,7 +14878,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>287</v>
       </c>
@@ -14902,7 +14907,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>288</v>
       </c>
@@ -14931,7 +14936,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>289</v>
       </c>
@@ -14960,7 +14965,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>290</v>
       </c>
@@ -14989,7 +14994,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>291</v>
       </c>
@@ -15018,7 +15023,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>292</v>
       </c>
@@ -15047,7 +15052,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>293</v>
       </c>
@@ -15076,7 +15081,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>294</v>
       </c>
@@ -15105,7 +15110,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>295</v>
       </c>
@@ -15134,7 +15139,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>296</v>
       </c>
@@ -15163,7 +15168,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>297</v>
       </c>
@@ -15189,7 +15194,7 @@
         <v>10503636</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>298</v>
       </c>
@@ -15218,7 +15223,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>299</v>
       </c>
@@ -15247,7 +15252,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>300</v>
       </c>
@@ -15276,7 +15281,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>301</v>
       </c>
@@ -15305,7 +15310,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>302</v>
       </c>
@@ -15334,7 +15339,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>303</v>
       </c>
@@ -15363,7 +15368,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>325</v>
       </c>
@@ -15392,7 +15397,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>326</v>
       </c>
@@ -15421,7 +15426,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>327</v>
       </c>
@@ -15450,7 +15455,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>329</v>
       </c>
@@ -15479,7 +15484,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>330</v>
       </c>
@@ -15508,7 +15513,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>331</v>
       </c>
@@ -15537,7 +15542,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>332</v>
       </c>
@@ -15566,7 +15571,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>333</v>
       </c>
@@ -15595,7 +15600,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>335</v>
       </c>
@@ -15624,7 +15629,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>336</v>
       </c>
@@ -15653,7 +15658,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>337</v>
       </c>
@@ -15682,7 +15687,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>338</v>
       </c>
@@ -15711,7 +15716,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>339</v>
       </c>
@@ -15737,7 +15742,7 @@
         <v>2456828</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>346</v>
       </c>
@@ -15766,7 +15771,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>347</v>
       </c>
@@ -15795,7 +15800,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>348</v>
       </c>
@@ -15824,7 +15829,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>349</v>
       </c>
@@ -15853,7 +15858,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>350</v>
       </c>
@@ -15882,7 +15887,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>351</v>
       </c>
@@ -15911,7 +15916,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>352</v>
       </c>
@@ -15940,7 +15945,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>353</v>
       </c>
@@ -15969,7 +15974,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>354</v>
       </c>
@@ -15998,7 +16003,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>355</v>
       </c>
@@ -16027,7 +16032,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>356</v>
       </c>
@@ -16056,7 +16061,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>357</v>
       </c>
@@ -16085,7 +16090,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>358</v>
       </c>
@@ -16114,7 +16119,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>359</v>
       </c>
@@ -16143,7 +16148,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>360</v>
       </c>
@@ -16172,7 +16177,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>361</v>
       </c>
@@ -16201,7 +16206,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>362</v>
       </c>
@@ -16230,7 +16235,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>363</v>
       </c>
@@ -16259,7 +16264,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>364</v>
       </c>
@@ -16288,7 +16293,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>365</v>
       </c>
@@ -16317,7 +16322,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>366</v>
       </c>
@@ -16346,7 +16351,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>367</v>
       </c>
@@ -16375,7 +16380,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>368</v>
       </c>
@@ -16404,7 +16409,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>369</v>
       </c>
@@ -16433,7 +16438,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>370</v>
       </c>
@@ -16462,7 +16467,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>371</v>
       </c>
@@ -16491,7 +16496,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>372</v>
       </c>
@@ -16520,7 +16525,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>373</v>
       </c>
@@ -16549,7 +16554,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>374</v>
       </c>
@@ -16578,7 +16583,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>375</v>
       </c>
@@ -16607,7 +16612,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>376</v>
       </c>
@@ -16636,7 +16641,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>377</v>
       </c>
@@ -16665,7 +16670,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>378</v>
       </c>
@@ -16694,7 +16699,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>379</v>
       </c>
@@ -16723,7 +16728,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>380</v>
       </c>
@@ -16755,7 +16760,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>386</v>
       </c>
@@ -16784,7 +16789,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>387</v>
       </c>
@@ -16813,7 +16818,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>388</v>
       </c>
@@ -16842,7 +16847,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>389</v>
       </c>
@@ -16871,7 +16876,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>390</v>
       </c>
@@ -16903,7 +16908,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>398</v>
       </c>
@@ -16932,7 +16937,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>399</v>
       </c>
@@ -16961,7 +16966,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>405</v>
       </c>
@@ -16990,7 +16995,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>410</v>
       </c>
@@ -17022,7 +17027,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>416</v>
       </c>
@@ -17054,7 +17059,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>421</v>
       </c>
@@ -17083,7 +17088,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>423</v>
       </c>
@@ -17112,7 +17117,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>424</v>
       </c>
@@ -17141,7 +17146,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>425</v>
       </c>
@@ -17170,7 +17175,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>426</v>
       </c>
@@ -17196,7 +17201,7 @@
         <v>3265152</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>427</v>
       </c>
@@ -17228,7 +17233,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>431</v>
       </c>
@@ -17257,7 +17262,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>432</v>
       </c>
@@ -17286,7 +17291,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>438</v>
       </c>
@@ -17315,7 +17320,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>444</v>
       </c>
@@ -17347,7 +17352,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>449</v>
       </c>
@@ -17379,7 +17384,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>454</v>
       </c>
@@ -17408,7 +17413,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>455</v>
       </c>
@@ -17434,7 +17439,7 @@
         <v>23715574</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>456</v>
       </c>
@@ -17460,7 +17465,7 @@
         <v>16931028</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>457</v>
       </c>
@@ -17492,7 +17497,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>462</v>
       </c>
@@ -17524,7 +17529,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>467</v>
       </c>
@@ -17556,7 +17561,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>473</v>
       </c>
@@ -17585,7 +17590,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>474</v>
       </c>
@@ -17614,7 +17619,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>475</v>
       </c>
@@ -17643,7 +17648,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>476</v>
       </c>
@@ -17672,7 +17677,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>490</v>
       </c>
@@ -17704,7 +17709,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>491</v>
       </c>
@@ -17736,7 +17741,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>492</v>
       </c>
@@ -17762,7 +17767,7 @@
         <v>18504594</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>493</v>
       </c>
@@ -17788,7 +17793,7 @@
         <v>11396888</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>494</v>
       </c>
@@ -17817,7 +17822,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>495</v>
       </c>
@@ -17846,7 +17851,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>496</v>
       </c>
@@ -17875,7 +17880,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>500</v>
       </c>
@@ -17904,7 +17909,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>503</v>
       </c>
@@ -17933,7 +17938,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>505</v>
       </c>
@@ -17962,7 +17967,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>507</v>
       </c>
@@ -17991,7 +17996,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>508</v>
       </c>
@@ -18020,7 +18025,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>509</v>
       </c>
@@ -18049,7 +18054,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>512</v>
       </c>
@@ -18078,7 +18083,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>514</v>
       </c>
@@ -18107,7 +18112,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>516</v>
       </c>
@@ -18136,7 +18141,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>523</v>
       </c>
@@ -18168,7 +18173,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>527</v>
       </c>
@@ -18200,7 +18205,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>531</v>
       </c>
@@ -18232,7 +18237,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>535</v>
       </c>
@@ -18264,7 +18269,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>544</v>
       </c>
@@ -18296,7 +18301,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>553</v>
       </c>
@@ -18328,7 +18333,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>554</v>
       </c>
@@ -18360,7 +18365,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>555</v>
       </c>
@@ -18389,7 +18394,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>557</v>
       </c>
@@ -18421,7 +18426,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>558</v>
       </c>
@@ -18447,7 +18452,7 @@
         <v>2792504</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>559</v>
       </c>
@@ -18479,7 +18484,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>560</v>
       </c>
@@ -18511,7 +18516,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>561</v>
       </c>
@@ -18543,7 +18548,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>562</v>
       </c>
@@ -18572,7 +18577,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>563</v>
       </c>
@@ -18601,7 +18606,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>564</v>
       </c>
@@ -18630,7 +18635,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>565</v>
       </c>
@@ -18659,7 +18664,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>566</v>
       </c>
@@ -18688,7 +18693,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>567</v>
       </c>
@@ -18717,7 +18722,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>568</v>
       </c>
@@ -18746,7 +18751,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>569</v>
       </c>
@@ -18778,7 +18783,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>570</v>
       </c>
@@ -18804,7 +18809,7 @@
         <v>54326608</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>571</v>
       </c>
@@ -18833,7 +18838,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>572</v>
       </c>
@@ -18859,7 +18864,7 @@
         <v>26018770</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>573</v>
       </c>
@@ -18891,7 +18896,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>574</v>
       </c>
@@ -18917,7 +18922,7 @@
         <v>8653520</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>575</v>
       </c>
@@ -18949,7 +18954,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>576</v>
       </c>
@@ -18981,7 +18986,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>577</v>
       </c>
@@ -19013,7 +19018,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>585</v>
       </c>
@@ -19039,7 +19044,7 @@
         <v>3564062</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>586</v>
       </c>
@@ -19065,7 +19070,7 @@
         <v>3052752</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>587</v>
       </c>
@@ -19097,7 +19102,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>588</v>
       </c>
@@ -19129,7 +19134,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>589</v>
       </c>
@@ -19161,7 +19166,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>590</v>
       </c>
@@ -19193,7 +19198,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>591</v>
       </c>
@@ -19225,7 +19230,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>592</v>
       </c>
@@ -19251,7 +19256,7 @@
         <v>4047624</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>593</v>
       </c>
@@ -19283,7 +19288,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>594</v>
       </c>
@@ -19315,7 +19320,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>595</v>
       </c>
@@ -19344,7 +19349,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>596</v>
       </c>
@@ -19373,7 +19378,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>597</v>
       </c>
@@ -19402,7 +19407,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>598</v>
       </c>
@@ -19431,7 +19436,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>599</v>
       </c>
@@ -19463,7 +19468,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>600</v>
       </c>
@@ -19495,7 +19500,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>608</v>
       </c>
@@ -19524,7 +19529,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>609</v>
       </c>
@@ -19550,7 +19555,7 @@
         <v>1988394</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>610</v>
       </c>
@@ -19582,7 +19587,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>611</v>
       </c>
@@ -19614,7 +19619,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>612</v>
       </c>
@@ -19640,7 +19645,7 @@
         <v>3391388</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>613</v>
       </c>
@@ -19672,7 +19677,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>614</v>
       </c>
@@ -19704,7 +19709,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>615</v>
       </c>
@@ -19730,7 +19735,7 @@
         <v>1510950</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>616</v>
       </c>
@@ -19756,7 +19761,7 @@
         <v>1155100</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>617</v>
       </c>
@@ -19788,7 +19793,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>618</v>
       </c>
@@ -19820,7 +19825,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>619</v>
       </c>
@@ -19852,7 +19857,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>620</v>
       </c>
@@ -19878,7 +19883,7 @@
         <v>1348458</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>621</v>
       </c>
@@ -19910,7 +19915,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>638</v>
       </c>
@@ -19942,7 +19947,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>639</v>
       </c>
@@ -19968,7 +19973,7 @@
         <v>119891782</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>640</v>
       </c>
@@ -19994,7 +19999,7 @@
         <v>35476954</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>641</v>
       </c>
@@ -20023,7 +20028,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>642</v>
       </c>
@@ -20049,7 +20054,7 @@
         <v>6680726</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>643</v>
       </c>
@@ -20075,7 +20080,7 @@
         <v>4859792</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>644</v>
       </c>
@@ -20107,7 +20112,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>645</v>
       </c>
@@ -20139,7 +20144,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>646</v>
       </c>
@@ -20165,7 +20170,7 @@
         <v>2834416</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>647</v>
       </c>
@@ -20197,7 +20202,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>648</v>
       </c>
@@ -20229,7 +20234,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>649</v>
       </c>
@@ -20261,7 +20266,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>650</v>
       </c>
@@ -20293,7 +20298,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>651</v>
       </c>
@@ -20325,7 +20330,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>652</v>
       </c>
@@ -20351,7 +20356,7 @@
         <v>204992</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>653</v>
       </c>
@@ -20383,7 +20388,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>654</v>
       </c>
@@ -20415,7 +20420,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>655</v>
       </c>
@@ -20447,7 +20452,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>656</v>
       </c>
@@ -20479,7 +20484,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>657</v>
       </c>
@@ -20505,7 +20510,7 @@
         <v>1422170</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>658</v>
       </c>
@@ -20534,7 +20539,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>659</v>
       </c>
@@ -20563,7 +20568,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>660</v>
       </c>
@@ -20592,7 +20597,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>661</v>
       </c>
@@ -20621,7 +20626,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>662</v>
       </c>
@@ -20650,7 +20655,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>663</v>
       </c>
@@ -20679,7 +20684,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>664</v>
       </c>
@@ -20708,7 +20713,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>665</v>
       </c>
@@ -20737,7 +20742,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>666</v>
       </c>
@@ -20763,7 +20768,7 @@
         <v>12674246</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>667</v>
       </c>
@@ -20789,7 +20794,7 @@
         <v>3075398</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>668</v>
       </c>
@@ -20821,7 +20826,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>669</v>
       </c>
@@ -20853,7 +20858,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>670</v>
       </c>
@@ -20885,7 +20890,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>671</v>
       </c>
@@ -20917,7 +20922,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>672</v>
       </c>
@@ -20946,7 +20951,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>674</v>
       </c>
@@ -20972,7 +20977,7 @@
         <v>2158754</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>675</v>
       </c>
@@ -21004,7 +21009,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>676</v>
       </c>
@@ -21033,7 +21038,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>677</v>
       </c>
@@ -21062,7 +21067,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>678</v>
       </c>
@@ -21091,7 +21096,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>679</v>
       </c>
@@ -21123,7 +21128,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>680</v>
       </c>
@@ -21155,7 +21160,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>681</v>
       </c>
@@ -21187,7 +21192,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>682</v>
       </c>
@@ -21219,7 +21224,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>683</v>
       </c>
@@ -21245,7 +21250,7 @@
         <v>2017460</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>684</v>
       </c>
@@ -21277,7 +21282,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>685</v>
       </c>
@@ -21309,7 +21314,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>689</v>
       </c>
@@ -21341,7 +21346,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>690</v>
       </c>
@@ -21373,7 +21378,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>691</v>
       </c>
@@ -21399,7 +21404,7 @@
         <v>1186056</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>692</v>
       </c>
@@ -21431,7 +21436,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>693</v>
       </c>
@@ -21463,7 +21468,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>694</v>
       </c>
@@ -21495,7 +21500,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>695</v>
       </c>
@@ -21527,7 +21532,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>696</v>
       </c>
@@ -21553,7 +21558,7 @@
         <v>1600950</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>697</v>
       </c>
@@ -21585,7 +21590,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>698</v>
       </c>
@@ -21617,7 +21622,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>699</v>
       </c>
@@ -21649,7 +21654,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>700</v>
       </c>
@@ -21681,7 +21686,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>701</v>
       </c>
@@ -21713,7 +21718,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>702</v>
       </c>
@@ -21745,7 +21750,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>703</v>
       </c>
@@ -21777,7 +21782,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>704</v>
       </c>
@@ -21803,7 +21808,7 @@
         <v>523522</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>705</v>
       </c>
@@ -21835,7 +21840,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>706</v>
       </c>
@@ -21867,7 +21872,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>707</v>
       </c>
@@ -21899,7 +21904,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>710</v>
       </c>
@@ -21931,7 +21936,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>711</v>
       </c>
@@ -21957,7 +21962,7 @@
         <v>664746</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>712</v>
       </c>
@@ -21989,7 +21994,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>713</v>
       </c>
@@ -22021,7 +22026,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>715</v>
       </c>
@@ -22050,7 +22055,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>716</v>
       </c>
@@ -22076,7 +22081,7 @@
         <v>782664</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>717</v>
       </c>
@@ -22108,7 +22113,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>718</v>
       </c>
@@ -22140,7 +22145,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>720</v>
       </c>
@@ -22172,7 +22177,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>731</v>
       </c>
@@ -22204,7 +22209,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>732</v>
       </c>
@@ -22236,7 +22241,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>733</v>
       </c>
@@ -22268,7 +22273,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>734</v>
       </c>
@@ -22294,7 +22299,7 @@
         <v>2045774</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>735</v>
       </c>
@@ -22326,7 +22331,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>737</v>
       </c>
@@ -22358,7 +22363,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>738</v>
       </c>
@@ -22390,7 +22395,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>739</v>
       </c>
@@ -22422,7 +22427,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>743</v>
       </c>
@@ -22454,7 +22459,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>744</v>
       </c>
@@ -22486,7 +22491,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>745</v>
       </c>
@@ -22518,7 +22523,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>746</v>
       </c>
@@ -22550,7 +22555,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>747</v>
       </c>
@@ -22582,7 +22587,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>749</v>
       </c>
@@ -22614,7 +22619,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>750</v>
       </c>
@@ -22646,7 +22651,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>751</v>
       </c>
@@ -22678,7 +22683,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>752</v>
       </c>
@@ -22710,7 +22715,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>753</v>
       </c>
@@ -22742,7 +22747,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>754</v>
       </c>
@@ -22774,7 +22779,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>755</v>
       </c>
@@ -22806,7 +22811,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>756</v>
       </c>
@@ -22832,7 +22837,7 @@
         <v>3847266</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>757</v>
       </c>
@@ -22864,7 +22869,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>762</v>
       </c>
@@ -22890,7 +22895,7 @@
         <v>1015810</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>763</v>
       </c>
@@ -22922,7 +22927,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>764</v>
       </c>
@@ -22951,7 +22956,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>765</v>
       </c>
@@ -22980,7 +22985,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>766</v>
       </c>
@@ -23009,7 +23014,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>767</v>
       </c>
@@ -23038,7 +23043,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>768</v>
       </c>
@@ -23067,7 +23072,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>769</v>
       </c>
@@ -23096,7 +23101,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>770</v>
       </c>
@@ -23128,7 +23133,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>773</v>
       </c>
@@ -23154,7 +23159,7 @@
         <v>143508</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>774</v>
       </c>
@@ -23186,7 +23191,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>775</v>
       </c>
@@ -23218,7 +23223,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>776</v>
       </c>
@@ -23250,7 +23255,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>780</v>
       </c>
@@ -23282,7 +23287,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>781</v>
       </c>
@@ -23314,7 +23319,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>782</v>
       </c>
@@ -23346,7 +23351,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>787</v>
       </c>
@@ -23378,7 +23383,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>792</v>
       </c>
@@ -23410,7 +23415,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>793</v>
       </c>
@@ -23436,7 +23441,7 @@
         <v>5685588</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>794</v>
       </c>
@@ -23468,7 +23473,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>795</v>
       </c>
@@ -23500,7 +23505,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>796</v>
       </c>
@@ -23532,7 +23537,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>797</v>
       </c>
@@ -23564,7 +23569,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>798</v>
       </c>
@@ -23596,7 +23601,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>799</v>
       </c>
@@ -23628,7 +23633,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>800</v>
       </c>
@@ -23660,7 +23665,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>801</v>
       </c>
@@ -23692,7 +23697,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>802</v>
       </c>
@@ -23724,7 +23729,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>804</v>
       </c>
@@ -23753,7 +23758,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>805</v>
       </c>
@@ -23785,7 +23790,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>806</v>
       </c>
@@ -23814,7 +23819,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>807</v>
       </c>
@@ -23840,7 +23845,7 @@
         <v>6856862</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>808</v>
       </c>
@@ -23869,7 +23874,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>809</v>
       </c>
@@ -23898,7 +23903,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>810</v>
       </c>
@@ -23927,7 +23932,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>811</v>
       </c>
@@ -23956,7 +23961,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>812</v>
       </c>
@@ -23985,7 +23990,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>813</v>
       </c>
@@ -24014,7 +24019,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>814</v>
       </c>
@@ -24043,7 +24048,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>815</v>
       </c>
@@ -24072,7 +24077,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>816</v>
       </c>
@@ -24104,7 +24109,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>817</v>
       </c>
@@ -24136,7 +24141,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>818</v>
       </c>
@@ -24168,7 +24173,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>819</v>
       </c>
@@ -24200,7 +24205,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>820</v>
       </c>
@@ -24232,7 +24237,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>821</v>
       </c>
@@ -24258,7 +24263,7 @@
         <v>21297964</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>822</v>
       </c>
@@ -24290,7 +24295,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>823</v>
       </c>
@@ -24322,7 +24327,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>824</v>
       </c>
@@ -24354,7 +24359,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>825</v>
       </c>
@@ -24386,7 +24391,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>826</v>
       </c>
@@ -24418,7 +24423,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>830</v>
       </c>
@@ -24447,7 +24452,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>831</v>
       </c>
@@ -24476,7 +24481,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>832</v>
       </c>
@@ -24505,7 +24510,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>833</v>
       </c>
@@ -24534,7 +24539,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>834</v>
       </c>
@@ -24563,7 +24568,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>838</v>
       </c>
@@ -24595,7 +24600,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>839</v>
       </c>
@@ -24624,7 +24629,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>840</v>
       </c>
@@ -24653,7 +24658,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>841</v>
       </c>
@@ -24682,7 +24687,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>842</v>
       </c>
@@ -24711,7 +24716,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>843</v>
       </c>
@@ -24737,7 +24742,7 @@
         <v>2080124</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>844</v>
       </c>
@@ -24769,7 +24774,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>845</v>
       </c>
@@ -24801,7 +24806,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>846</v>
       </c>
@@ -24833,7 +24838,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>847</v>
       </c>
@@ -24865,7 +24870,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>848</v>
       </c>
@@ -24897,7 +24902,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>849</v>
       </c>
@@ -24929,7 +24934,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>850</v>
       </c>
@@ -24958,7 +24963,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>852</v>
       </c>
@@ -24990,7 +24995,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>853</v>
       </c>
@@ -25022,7 +25027,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>854</v>
       </c>
@@ -25054,7 +25059,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>855</v>
       </c>
@@ -25086,7 +25091,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>856</v>
       </c>
@@ -25118,7 +25123,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>857</v>
       </c>
@@ -25150,7 +25155,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>858</v>
       </c>
@@ -25182,7 +25187,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>859</v>
       </c>
@@ -25214,7 +25219,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>860</v>
       </c>
@@ -25246,7 +25251,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>861</v>
       </c>
@@ -25278,7 +25283,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>862</v>
       </c>
@@ -25310,7 +25315,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>863</v>
       </c>
@@ -25342,7 +25347,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>865</v>
       </c>
@@ -25368,7 +25373,7 @@
         <v>1822778</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>866</v>
       </c>
@@ -25400,7 +25405,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>867</v>
       </c>
@@ -25432,7 +25437,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>868</v>
       </c>
@@ -25458,7 +25463,7 @@
         <v>733500</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>869</v>
       </c>
@@ -25490,7 +25495,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>870</v>
       </c>
@@ -25519,7 +25524,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>871</v>
       </c>
@@ -25548,7 +25553,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>872</v>
       </c>
@@ -25577,7 +25582,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>873</v>
       </c>
@@ -25606,7 +25611,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>874</v>
       </c>
@@ -25635,7 +25640,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>875</v>
       </c>
@@ -25664,7 +25669,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>876</v>
       </c>
@@ -25693,7 +25698,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>877</v>
       </c>
@@ -25722,7 +25727,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>878</v>
       </c>
@@ -25751,7 +25756,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>879</v>
       </c>
@@ -25783,7 +25788,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>880</v>
       </c>
@@ -25815,7 +25820,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>881</v>
       </c>
@@ -25847,7 +25852,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>882</v>
       </c>
@@ -25873,7 +25878,7 @@
         <v>47674342</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>883</v>
       </c>
@@ -25902,7 +25907,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>884</v>
       </c>
@@ -25928,7 +25933,7 @@
         <v>3850166</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>885</v>
       </c>
@@ -25960,7 +25965,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>889</v>
       </c>
@@ -25992,7 +25997,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>890</v>
       </c>
@@ -26024,7 +26029,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>891</v>
       </c>
@@ -26053,7 +26058,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>902</v>
       </c>
@@ -26082,7 +26087,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>903</v>
       </c>
@@ -26111,7 +26116,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>904</v>
       </c>
@@ -26140,7 +26145,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>905</v>
       </c>
@@ -26169,7 +26174,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>906</v>
       </c>
@@ -26195,7 +26200,7 @@
         <v>5794764</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>907</v>
       </c>
@@ -26227,7 +26232,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>908</v>
       </c>
@@ -26259,7 +26264,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>910</v>
       </c>
@@ -26291,7 +26296,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>911</v>
       </c>
@@ -26323,7 +26328,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>912</v>
       </c>
@@ -26355,7 +26360,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>913</v>
       </c>
@@ -26387,7 +26392,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>915</v>
       </c>
@@ -26419,7 +26424,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>917</v>
       </c>
@@ -26451,7 +26456,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>918</v>
       </c>
@@ -26483,7 +26488,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>919</v>
       </c>
@@ -26515,7 +26520,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>920</v>
       </c>
@@ -26547,7 +26552,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>921</v>
       </c>
@@ -26579,7 +26584,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>922</v>
       </c>
@@ -26611,7 +26616,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>923</v>
       </c>
@@ -26643,7 +26648,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>924</v>
       </c>
@@ -26669,7 +26674,7 @@
         <v>3462014</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>925</v>
       </c>
@@ -26701,7 +26706,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>928</v>
       </c>
@@ -26733,7 +26738,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>929</v>
       </c>
@@ -26765,7 +26770,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>930</v>
       </c>
@@ -26797,7 +26802,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>931</v>
       </c>
@@ -26829,7 +26834,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>932</v>
       </c>
@@ -26861,7 +26866,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>933</v>
       </c>
@@ -26893,7 +26898,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>934</v>
       </c>
@@ -26925,7 +26930,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>935</v>
       </c>
@@ -26954,7 +26959,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>936</v>
       </c>
@@ -26980,7 +26985,7 @@
         <v>7933114</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>937</v>
       </c>
@@ -27012,7 +27017,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>938</v>
       </c>
@@ -27038,7 +27043,7 @@
         <v>1629282</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>941</v>
       </c>
@@ -27070,7 +27075,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>942</v>
       </c>
@@ -27102,7 +27107,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>943</v>
       </c>
@@ -27128,7 +27133,7 @@
         <v>414748</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>944</v>
       </c>
@@ -27160,7 +27165,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>945</v>
       </c>
@@ -27192,7 +27197,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>946</v>
       </c>
@@ -27224,7 +27229,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>947</v>
       </c>
@@ -27256,7 +27261,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>948</v>
       </c>
@@ -27288,7 +27293,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>954</v>
       </c>
@@ -27320,7 +27325,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>955</v>
       </c>
@@ -27352,7 +27357,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>956</v>
       </c>
@@ -27384,7 +27389,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>962</v>
       </c>
@@ -27416,7 +27421,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>964</v>
       </c>
@@ -27442,7 +27447,7 @@
         <v>17489144</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>965</v>
       </c>
@@ -27474,7 +27479,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>967</v>
       </c>
@@ -27506,7 +27511,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>968</v>
       </c>
@@ -27538,7 +27543,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>970</v>
       </c>
@@ -27567,7 +27572,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>971</v>
       </c>
@@ -27596,7 +27601,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>972</v>
       </c>
@@ -27625,7 +27630,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>973</v>
       </c>
@@ -27657,7 +27662,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>975</v>
       </c>
@@ -27689,7 +27694,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>976</v>
       </c>
@@ -27721,7 +27726,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>977</v>
       </c>
@@ -27753,7 +27758,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>978</v>
       </c>
@@ -27785,7 +27790,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>979</v>
       </c>
@@ -27817,7 +27822,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>980</v>
       </c>
@@ -27849,7 +27854,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>981</v>
       </c>
@@ -27878,7 +27883,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>982</v>
       </c>
@@ -27907,7 +27912,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>983</v>
       </c>
@@ -27936,7 +27941,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>984</v>
       </c>
@@ -27968,7 +27973,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>985</v>
       </c>
@@ -27997,7 +28002,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>986</v>
       </c>
@@ -28029,7 +28034,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>987</v>
       </c>
@@ -28061,7 +28066,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>988</v>
       </c>
@@ -28093,7 +28098,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>989</v>
       </c>
@@ -28125,7 +28130,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>990</v>
       </c>
@@ -28151,7 +28156,7 @@
         <v>947002</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>991</v>
       </c>
@@ -28183,7 +28188,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>992</v>
       </c>
@@ -28215,7 +28220,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>993</v>
       </c>
@@ -28241,7 +28246,7 @@
         <v>274030</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>995</v>
       </c>
@@ -28273,7 +28278,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>996</v>
       </c>
@@ -28305,7 +28310,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>998</v>
       </c>
@@ -28337,7 +28342,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>1001</v>
       </c>
@@ -28363,7 +28368,7 @@
         <v>3207466</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>1002</v>
       </c>
@@ -28395,7 +28400,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>1003</v>
       </c>
@@ -28427,7 +28432,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>1004</v>
       </c>
@@ -28459,7 +28464,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>1005</v>
       </c>
@@ -28491,7 +28496,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>1006</v>
       </c>
@@ -28523,7 +28528,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>1007</v>
       </c>
@@ -28555,7 +28560,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>1008</v>
       </c>
@@ -28587,7 +28592,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>1010</v>
       </c>
@@ -28613,7 +28618,7 @@
         <v>223536</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>1011</v>
       </c>
@@ -28645,7 +28650,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>1012</v>
       </c>
@@ -28677,7 +28682,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>1013</v>
       </c>
@@ -28709,7 +28714,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>1014</v>
       </c>
@@ -28738,7 +28743,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>1015</v>
       </c>
@@ -28764,7 +28769,7 @@
         <v>51231088</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>1016</v>
       </c>
@@ -28790,7 +28795,7 @@
         <v>20273620</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>1017</v>
       </c>
@@ -28822,7 +28827,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>1021</v>
       </c>
@@ -28851,7 +28856,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>1022</v>
       </c>
@@ -28880,7 +28885,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>1026</v>
       </c>
@@ -28909,7 +28914,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>1030</v>
       </c>
@@ -28938,7 +28943,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>1039</v>
       </c>
@@ -28967,7 +28972,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>1043</v>
       </c>
@@ -28999,7 +29004,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>1047</v>
       </c>
@@ -29031,7 +29036,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>1051</v>
       </c>
@@ -29063,7 +29068,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>1055</v>
       </c>
@@ -29095,7 +29100,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>1059</v>
       </c>
@@ -29127,7 +29132,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>1063</v>
       </c>
@@ -29153,7 +29158,7 @@
         <v>30957468</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>1064</v>
       </c>
@@ -29185,7 +29190,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>1068</v>
       </c>
@@ -29214,7 +29219,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>1069</v>
       </c>
@@ -29243,7 +29248,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>1073</v>
       </c>
@@ -29272,7 +29277,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>1077</v>
       </c>
@@ -29304,7 +29309,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>1081</v>
       </c>
@@ -29336,7 +29341,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>1085</v>
       </c>
@@ -29368,7 +29373,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>1089</v>
       </c>
@@ -29400,7 +29405,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>1096</v>
       </c>
@@ -29426,7 +29431,7 @@
         <v>1782040</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>1097</v>
       </c>
@@ -29458,7 +29463,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>1098</v>
       </c>
@@ -29490,7 +29495,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>1099</v>
       </c>
@@ -29522,7 +29527,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>1100</v>
       </c>
@@ -29554,7 +29559,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>1101</v>
       </c>
@@ -29583,7 +29588,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>1102</v>
       </c>
@@ -29609,7 +29614,7 @@
         <v>12354320</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>1104</v>
       </c>
@@ -29638,7 +29643,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>1105</v>
       </c>
@@ -29664,7 +29669,7 @@
         <v>5973186</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>1106</v>
       </c>
@@ -29693,7 +29698,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>1107</v>
       </c>
@@ -29719,7 +29724,7 @@
         <v>1061954</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>1108</v>
       </c>
@@ -29748,7 +29753,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>1109</v>
       </c>
@@ -29777,7 +29782,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>1111</v>
       </c>
@@ -29806,7 +29811,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>1112</v>
       </c>
@@ -29835,7 +29840,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>1114</v>
       </c>
@@ -29864,7 +29869,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>1115</v>
       </c>
@@ -29893,7 +29898,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>1116</v>
       </c>
@@ -29922,7 +29927,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>1117</v>
       </c>
@@ -29951,7 +29956,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>1119</v>
       </c>
@@ -29980,7 +29985,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>1120</v>
       </c>
@@ -30009,7 +30014,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>1121</v>
       </c>
@@ -30038,7 +30043,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>1122</v>
       </c>
@@ -30067,7 +30072,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>1125</v>
       </c>
@@ -30093,7 +30098,7 @@
         <v>2377594</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>1126</v>
       </c>
@@ -30122,7 +30127,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>1127</v>
       </c>
@@ -30151,7 +30156,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>1129</v>
       </c>
@@ -30180,7 +30185,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>1130</v>
       </c>
@@ -30209,7 +30214,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>1132</v>
       </c>
@@ -30238,7 +30243,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>1133</v>
       </c>
@@ -30264,7 +30269,7 @@
         <v>1661226</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>1135</v>
       </c>
@@ -30293,7 +30298,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>1136</v>
       </c>
@@ -30319,7 +30324,7 @@
         <v>1411070</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>1137</v>
       </c>
@@ -30348,7 +30353,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>1139</v>
       </c>
@@ -30377,7 +30382,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>1140</v>
       </c>
@@ -30406,7 +30411,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>1141</v>
       </c>
@@ -30435,7 +30440,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>1142</v>
       </c>
@@ -30464,7 +30469,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>1144</v>
       </c>
@@ -30490,7 +30495,7 @@
         <v>9312</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>1145</v>
       </c>
@@ -30519,7 +30524,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>1149</v>
       </c>
@@ -30545,7 +30550,7 @@
         <v>687986</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>1150</v>
       </c>
@@ -30571,7 +30576,7 @@
         <v>687986</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>1155</v>
       </c>
@@ -30597,7 +30602,7 @@
         <v>22312</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>1156</v>
       </c>
@@ -30626,7 +30631,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>1159</v>
       </c>
@@ -30655,7 +30660,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>1171</v>
       </c>
@@ -30681,7 +30686,7 @@
         <v>9806446</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>1172</v>
       </c>
@@ -30710,7 +30715,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>1173</v>
       </c>
@@ -30736,7 +30741,7 @@
         <v>2819152</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>1174</v>
       </c>
@@ -30765,7 +30770,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>1175</v>
       </c>
@@ -30794,7 +30799,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>1177</v>
       </c>
@@ -30823,7 +30828,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>1178</v>
       </c>
@@ -30852,7 +30857,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>1179</v>
       </c>
@@ -30881,7 +30886,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>1180</v>
       </c>
@@ -30910,7 +30915,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>1181</v>
       </c>
@@ -30939,7 +30944,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>1188</v>
       </c>
@@ -30968,7 +30973,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>1189</v>
       </c>
@@ -30997,7 +31002,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>1190</v>
       </c>
@@ -31023,7 +31028,7 @@
         <v>13864520</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>1191</v>
       </c>
@@ -31052,7 +31057,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>1192</v>
       </c>
@@ -31081,7 +31086,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>1193</v>
       </c>
@@ -31110,7 +31115,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>1194</v>
       </c>
@@ -31139,7 +31144,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>1195</v>
       </c>
@@ -31168,7 +31173,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>1196</v>
       </c>
@@ -31197,7 +31202,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>1198</v>
       </c>
@@ -31226,7 +31231,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>1199</v>
       </c>
@@ -31255,7 +31260,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>1200</v>
       </c>
@@ -31284,7 +31289,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>1201</v>
       </c>
@@ -31313,7 +31318,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>1202</v>
       </c>
@@ -31342,7 +31347,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>1207</v>
       </c>
@@ -31371,7 +31376,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>1208</v>
       </c>
@@ -31400,7 +31405,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>1211</v>
       </c>
@@ -31426,7 +31431,7 @@
         <v>2368822</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>1212</v>
       </c>
@@ -31455,7 +31460,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>1216</v>
       </c>
@@ -31484,7 +31489,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>1217</v>
       </c>
@@ -31513,7 +31518,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>1218</v>
       </c>
@@ -31539,7 +31544,7 @@
         <v>1228724</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>1219</v>
       </c>
@@ -31565,7 +31570,7 @@
         <v>112364</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>1221</v>
       </c>
@@ -31594,7 +31599,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>1226</v>
       </c>
@@ -31620,7 +31625,7 @@
         <v>510510</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>1227</v>
       </c>
@@ -31649,7 +31654,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>1228</v>
       </c>
@@ -31678,7 +31683,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>1229</v>
       </c>
@@ -31707,7 +31712,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>1230</v>
       </c>
@@ -31736,7 +31741,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <v>1231</v>
       </c>
@@ -31765,7 +31770,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <v>1238</v>
       </c>
@@ -31791,7 +31796,7 @@
         <v>7043616</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>1239</v>
       </c>
@@ -31817,7 +31822,7 @@
         <v>6222734</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <v>1240</v>
       </c>
@@ -31846,7 +31851,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>1242</v>
       </c>
@@ -31875,7 +31880,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <v>1243</v>
       </c>
@@ -31904,7 +31909,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <v>1244</v>
       </c>
@@ -31930,7 +31935,7 @@
         <v>4240376</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <v>1245</v>
       </c>
@@ -31959,7 +31964,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <v>1246</v>
       </c>
@@ -31988,7 +31993,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <v>1247</v>
       </c>
@@ -32017,7 +32022,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <v>1250</v>
       </c>
@@ -32043,7 +32048,7 @@
         <v>277948</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <v>1251</v>
       </c>
@@ -32072,7 +32077,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <v>1252</v>
       </c>
@@ -32101,7 +32106,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>1253</v>
       </c>
@@ -32127,7 +32132,7 @@
         <v>1018498</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <v>1254</v>
       </c>
@@ -32156,7 +32161,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>1255</v>
       </c>
@@ -32185,7 +32190,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>1259</v>
       </c>
@@ -32214,7 +32219,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>1260</v>
       </c>
@@ -32243,7 +32248,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>1261</v>
       </c>
@@ -32269,7 +32274,7 @@
         <v>820882</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <v>1262</v>
       </c>
@@ -32298,7 +32303,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>1265</v>
       </c>
@@ -32327,7 +32332,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <v>1277</v>
       </c>
@@ -32353,7 +32358,7 @@
         <v>260398</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <v>1278</v>
       </c>
@@ -32382,7 +32387,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <v>1279</v>
       </c>
@@ -32411,7 +32416,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <v>1280</v>
       </c>
@@ -32440,7 +32445,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <v>1281</v>
       </c>
@@ -32469,7 +32474,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <v>1284</v>
       </c>
@@ -32495,7 +32500,7 @@
         <v>486112</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <v>1285</v>
       </c>
@@ -32524,7 +32529,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <v>1286</v>
       </c>
@@ -32553,7 +32558,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <v>1287</v>
       </c>
@@ -32582,7 +32587,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <v>1292</v>
       </c>
@@ -32608,7 +32613,7 @@
         <v>5959382</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>1293</v>
       </c>
@@ -32637,7 +32642,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <v>1295</v>
       </c>
@@ -32666,7 +32671,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <v>1296</v>
       </c>
@@ -32695,7 +32700,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>1299</v>
       </c>
@@ -32724,7 +32729,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <v>1300</v>
       </c>
@@ -32753,7 +32758,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <v>1301</v>
       </c>
@@ -32782,7 +32787,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <v>1302</v>
       </c>
@@ -32811,7 +32816,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A840" s="1">
         <v>1303</v>
       </c>
